--- a/subtable/按分量制拆分的子表/组手/U9女子中级组-25KG.xlsx
+++ b/subtable/按分量制拆分的子表/组手/U9女子中级组-25KG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 3</t>
+          <t>赢的次数</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -461,15 +461,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 5</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>分量制</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>型</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>无差</t>
         </is>
@@ -491,25 +496,28 @@
           <t>女</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>120103201701030089</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>23</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>U9女子中级组-25KG</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>U9中级组女子个人型</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>2017年女子组无差</t>
         </is>
@@ -531,25 +539,28 @@
           <t>女</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>120102201708037025</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>23.3</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>U9女子中级组-25KG</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>U9中级组女子个人型</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -567,25 +578,28 @@
           <t>女</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>450103201702177222</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>23.2</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>U9女子中级组-25KG</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>U9中级组女子个人型</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -603,21 +617,24 @@
           <t>女</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>51010720150917622x</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>23.65</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>U9女子中级组-25KG</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -635,27 +652,30 @@
           <t>女</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>500101201606230646</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>23KG</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>U9女子中级组-25KG</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>U9中级组女子个人型</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>2016年女子组无差</t>
         </is>
